--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fzd8-Ckap4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fzd8-Ckap4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.569008</v>
+        <v>3.1851815</v>
       </c>
       <c r="H2">
-        <v>5.138016</v>
+        <v>6.370363</v>
       </c>
       <c r="I2">
-        <v>0.2577238367773512</v>
+        <v>0.4406530230187619</v>
       </c>
       <c r="J2">
-        <v>0.2133397199412101</v>
+        <v>0.3851702893788179</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.475158</v>
+        <v>17.675996</v>
       </c>
       <c r="N2">
-        <v>20.950316</v>
+        <v>35.351992</v>
       </c>
       <c r="O2">
-        <v>0.06723868979225338</v>
+        <v>0.09833671543585389</v>
       </c>
       <c r="P2">
-        <v>0.04730430172509074</v>
+        <v>0.07017753849298013</v>
       </c>
       <c r="Q2">
-        <v>26.910764703264</v>
+        <v>56.301255453274</v>
       </c>
       <c r="R2">
-        <v>107.643058813056</v>
+        <v>225.205021813096</v>
       </c>
       <c r="S2">
-        <v>0.01732901311314166</v>
+        <v>0.04333237093054476</v>
       </c>
       <c r="T2">
-        <v>0.01009188648204536</v>
+        <v>0.02703030280923429</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.569008</v>
+        <v>3.1851815</v>
       </c>
       <c r="H3">
-        <v>5.138016</v>
+        <v>6.370363</v>
       </c>
       <c r="I3">
-        <v>0.2577238367773512</v>
+        <v>0.4406530230187619</v>
       </c>
       <c r="J3">
-        <v>0.2133397199412101</v>
+        <v>0.3851702893788179</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>284.311225</v>
       </c>
       <c r="O3">
-        <v>0.6083190427686328</v>
+        <v>0.5272353917716817</v>
       </c>
       <c r="P3">
-        <v>0.6419542297705754</v>
+        <v>0.5643886187919435</v>
       </c>
       <c r="Q3">
-        <v>243.4659371716</v>
+        <v>301.8609513707792</v>
       </c>
       <c r="R3">
-        <v>1460.7956230296</v>
+        <v>1811.165708224675</v>
       </c>
       <c r="S3">
-        <v>0.1567783176870576</v>
+        <v>0.2323278692266728</v>
       </c>
       <c r="T3">
-        <v>0.1369543355943298</v>
+        <v>0.2173857276222042</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.569008</v>
+        <v>3.1851815</v>
       </c>
       <c r="H4">
-        <v>5.138016</v>
+        <v>6.370363</v>
       </c>
       <c r="I4">
-        <v>0.2577238367773512</v>
+        <v>0.4406530230187619</v>
       </c>
       <c r="J4">
-        <v>0.2133397199412101</v>
+        <v>0.3851702893788179</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.538844</v>
+        <v>16.72909766666666</v>
       </c>
       <c r="N4">
-        <v>49.61653199999999</v>
+        <v>50.187293</v>
       </c>
       <c r="O4">
-        <v>0.1061607091022847</v>
+        <v>0.09306884414013258</v>
       </c>
       <c r="P4">
-        <v>0.1120305488604859</v>
+        <v>0.09962722005498224</v>
       </c>
       <c r="Q4">
-        <v>42.488422546752</v>
+        <v>53.28521239955982</v>
       </c>
       <c r="R4">
-        <v>254.930535280512</v>
+        <v>319.711274397359</v>
       </c>
       <c r="S4">
-        <v>0.02736014526484509</v>
+        <v>0.04101106751921141</v>
       </c>
       <c r="T4">
-        <v>0.02390056591875611</v>
+        <v>0.03837344517858468</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.569008</v>
+        <v>3.1851815</v>
       </c>
       <c r="H5">
-        <v>5.138016</v>
+        <v>6.370363</v>
       </c>
       <c r="I5">
-        <v>0.2577238367773512</v>
+        <v>0.4406530230187619</v>
       </c>
       <c r="J5">
-        <v>0.2133397199412101</v>
+        <v>0.3851702893788179</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.012789</v>
+        <v>17.8223195</v>
       </c>
       <c r="N5">
-        <v>28.025578</v>
+        <v>35.644639</v>
       </c>
       <c r="O5">
-        <v>0.08994628746366408</v>
+        <v>0.09915075569593756</v>
       </c>
       <c r="P5">
-        <v>0.06327973276069274</v>
+        <v>0.07075847452926784</v>
       </c>
       <c r="Q5">
-        <v>35.99896704331201</v>
+        <v>56.76732235848925</v>
       </c>
       <c r="R5">
-        <v>143.995868173248</v>
+        <v>227.069289433957</v>
       </c>
       <c r="S5">
-        <v>0.02318130230901407</v>
+        <v>0.04369108023200961</v>
       </c>
       <c r="T5">
-        <v>0.01350008046512081</v>
+        <v>0.02725406211044181</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.569008</v>
+        <v>3.1851815</v>
       </c>
       <c r="H6">
-        <v>5.138016</v>
+        <v>6.370363</v>
       </c>
       <c r="I6">
-        <v>0.2577238367773512</v>
+        <v>0.4406530230187619</v>
       </c>
       <c r="J6">
-        <v>0.2133397199412101</v>
+        <v>0.3851702893788179</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.575923</v>
+        <v>14.92062066666667</v>
       </c>
       <c r="N6">
-        <v>25.727769</v>
+        <v>44.761862</v>
       </c>
       <c r="O6">
-        <v>0.05504774498668669</v>
+        <v>0.08300775971121065</v>
       </c>
       <c r="P6">
-        <v>0.05809144585167288</v>
+        <v>0.08885715106301406</v>
       </c>
       <c r="Q6">
-        <v>22.031614794384</v>
+        <v>47.52488491598433</v>
       </c>
       <c r="R6">
-        <v>132.189688766304</v>
+        <v>285.149309495906</v>
       </c>
       <c r="S6">
-        <v>0.01418711604391009</v>
+        <v>0.03657762025075996</v>
       </c>
       <c r="T6">
-        <v>0.01239321278897586</v>
+        <v>0.03422513458831847</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.569008</v>
+        <v>3.1851815</v>
       </c>
       <c r="H7">
-        <v>5.138016</v>
+        <v>6.370363</v>
       </c>
       <c r="I7">
-        <v>0.2577238367773512</v>
+        <v>0.4406530230187619</v>
       </c>
       <c r="J7">
-        <v>0.2133397199412101</v>
+        <v>0.3851702893788179</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.41751</v>
+        <v>17.831267</v>
       </c>
       <c r="N7">
-        <v>34.25253</v>
+        <v>53.493801</v>
       </c>
       <c r="O7">
-        <v>0.07328752588647836</v>
+        <v>0.09920053324518359</v>
       </c>
       <c r="P7">
-        <v>0.07733974103148239</v>
+        <v>0.1061909970678122</v>
       </c>
       <c r="Q7">
-        <v>29.33167453008</v>
+        <v>56.7958217699605</v>
       </c>
       <c r="R7">
-        <v>175.99004718048</v>
+        <v>340.774930619763</v>
       </c>
       <c r="S7">
-        <v>0.01888794235938265</v>
+        <v>0.04371301485956334</v>
       </c>
       <c r="T7">
-        <v>0.01649963869198217</v>
+        <v>0.04090161707003442</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>6.130444</v>
       </c>
       <c r="I8">
-        <v>0.2050028063787905</v>
+        <v>0.2827048402157753</v>
       </c>
       <c r="J8">
-        <v>0.2545471259870097</v>
+        <v>0.3706641033643825</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.475158</v>
+        <v>17.675996</v>
       </c>
       <c r="N8">
-        <v>20.950316</v>
+        <v>35.351992</v>
       </c>
       <c r="O8">
-        <v>0.06723868979225338</v>
+        <v>0.09833671543585389</v>
       </c>
       <c r="P8">
-        <v>0.04730430172509074</v>
+        <v>0.07017753849298013</v>
       </c>
       <c r="Q8">
-        <v>21.40578983671733</v>
+        <v>36.12056787407466</v>
       </c>
       <c r="R8">
-        <v>128.434739020304</v>
+        <v>216.723407244448</v>
       </c>
       <c r="S8">
-        <v>0.01378412010464488</v>
+        <v>0.02780026542463724</v>
       </c>
       <c r="T8">
-        <v>0.01204117405094419</v>
+        <v>0.02601229438181992</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>6.130444</v>
       </c>
       <c r="I9">
-        <v>0.2050028063787905</v>
+        <v>0.2827048402157753</v>
       </c>
       <c r="J9">
-        <v>0.2545471259870097</v>
+        <v>0.3706641033643825</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>284.311225</v>
       </c>
       <c r="O9">
-        <v>0.6083190427686328</v>
+        <v>0.5272353917716817</v>
       </c>
       <c r="P9">
-        <v>0.6419542297705754</v>
+        <v>0.5643886187919435</v>
       </c>
       <c r="Q9">
         <v>193.6615603815445</v>
@@ -1013,10 +1013,10 @@
         <v>1742.9540434339</v>
       </c>
       <c r="S9">
-        <v>0.1247071109412292</v>
+        <v>0.1490519971869149</v>
       </c>
       <c r="T9">
-        <v>0.1634076042033044</v>
+        <v>0.209198601333578</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>6.130444</v>
       </c>
       <c r="I10">
-        <v>0.2050028063787905</v>
+        <v>0.2827048402157753</v>
       </c>
       <c r="J10">
-        <v>0.2545471259870097</v>
+        <v>0.3706641033643825</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.538844</v>
+        <v>16.72909766666666</v>
       </c>
       <c r="N10">
-        <v>49.61653199999999</v>
+        <v>50.187293</v>
       </c>
       <c r="O10">
-        <v>0.1061607091022847</v>
+        <v>0.09306884414013258</v>
       </c>
       <c r="P10">
-        <v>0.1120305488604859</v>
+        <v>0.09962722005498224</v>
       </c>
       <c r="Q10">
-        <v>33.79681898891199</v>
+        <v>34.18559880534355</v>
       </c>
       <c r="R10">
-        <v>304.1713709002079</v>
+        <v>307.670389248092</v>
       </c>
       <c r="S10">
-        <v>0.02176324329313079</v>
+        <v>0.02631101271170308</v>
       </c>
       <c r="T10">
-        <v>0.02851705423518395</v>
+        <v>0.03692823419236602</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>6.130444</v>
       </c>
       <c r="I11">
-        <v>0.2050028063787905</v>
+        <v>0.2827048402157753</v>
       </c>
       <c r="J11">
-        <v>0.2545471259870097</v>
+        <v>0.3706641033643825</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.012789</v>
+        <v>17.8223195</v>
       </c>
       <c r="N11">
-        <v>28.025578</v>
+        <v>35.644639</v>
       </c>
       <c r="O11">
-        <v>0.08994628746366408</v>
+        <v>0.09915075569593756</v>
       </c>
       <c r="P11">
-        <v>0.06327973276069274</v>
+        <v>0.07075847452926784</v>
       </c>
       <c r="Q11">
-        <v>28.63487274943867</v>
+        <v>36.41957721495266</v>
       </c>
       <c r="R11">
-        <v>171.809236496632</v>
+        <v>218.517463289716</v>
       </c>
       <c r="S11">
-        <v>0.01843924135340456</v>
+        <v>0.0280303985462934</v>
       </c>
       <c r="T11">
-        <v>0.01610767410746036</v>
+        <v>0.02622762651682256</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>6.130444</v>
       </c>
       <c r="I12">
-        <v>0.2050028063787905</v>
+        <v>0.2827048402157753</v>
       </c>
       <c r="J12">
-        <v>0.2545471259870097</v>
+        <v>0.3706641033643825</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.575923</v>
+        <v>14.92062066666667</v>
       </c>
       <c r="N12">
-        <v>25.727769</v>
+        <v>44.761862</v>
       </c>
       <c r="O12">
-        <v>0.05504774498668669</v>
+        <v>0.08300775971121065</v>
       </c>
       <c r="P12">
-        <v>0.05809144585167288</v>
+        <v>0.08885715106301406</v>
       </c>
       <c r="Q12">
-        <v>17.524738566604</v>
+        <v>30.49000981408089</v>
       </c>
       <c r="R12">
-        <v>157.722647099436</v>
+        <v>274.410088326728</v>
       </c>
       <c r="S12">
-        <v>0.01128494220709477</v>
+        <v>0.02346669544582728</v>
       </c>
       <c r="T12">
-        <v>0.01478701058597333</v>
+        <v>0.0329361562262856</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>6.130444</v>
       </c>
       <c r="I13">
-        <v>0.2050028063787905</v>
+        <v>0.2827048402157753</v>
       </c>
       <c r="J13">
-        <v>0.2545471259870097</v>
+        <v>0.3706641033643825</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.41751</v>
+        <v>17.831267</v>
       </c>
       <c r="N13">
-        <v>34.25253</v>
+        <v>53.493801</v>
       </c>
       <c r="O13">
-        <v>0.07328752588647836</v>
+        <v>0.09920053324518359</v>
       </c>
       <c r="P13">
-        <v>0.07733974103148239</v>
+        <v>0.1061909970678122</v>
       </c>
       <c r="Q13">
-        <v>23.33146855814667</v>
+        <v>36.43786126418266</v>
       </c>
       <c r="R13">
-        <v>209.98321702332</v>
+        <v>327.940751377644</v>
       </c>
       <c r="S13">
-        <v>0.01502414847928632</v>
+        <v>0.02804447090039933</v>
       </c>
       <c r="T13">
-        <v>0.01968660880414345</v>
+        <v>0.03936119071351037</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.01206</v>
+        <v>0.003928</v>
       </c>
       <c r="H14">
-        <v>0.03618</v>
+        <v>0.011784</v>
       </c>
       <c r="I14">
-        <v>0.001209863679496076</v>
+        <v>0.0005434180358066555</v>
       </c>
       <c r="J14">
-        <v>0.001502259056311421</v>
+        <v>0.0007124942001013113</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.475158</v>
+        <v>17.675996</v>
       </c>
       <c r="N14">
-        <v>20.950316</v>
+        <v>35.351992</v>
       </c>
       <c r="O14">
-        <v>0.06723868979225338</v>
+        <v>0.09833671543585389</v>
       </c>
       <c r="P14">
-        <v>0.04730430172509074</v>
+        <v>0.07017753849298013</v>
       </c>
       <c r="Q14">
-        <v>0.12633040548</v>
+        <v>0.06943131228799999</v>
       </c>
       <c r="R14">
-        <v>0.75798243288</v>
+        <v>0.4165878737279999</v>
       </c>
       <c r="S14">
-        <v>8.134964863655092E-05</v>
+        <v>5.343794474982974E-05</v>
       </c>
       <c r="T14">
-        <v>7.106331566900552E-05</v>
+        <v>5.000108915363486E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.01206</v>
+        <v>0.003928</v>
       </c>
       <c r="H15">
-        <v>0.03618</v>
+        <v>0.011784</v>
       </c>
       <c r="I15">
-        <v>0.001209863679496076</v>
+        <v>0.0005434180358066555</v>
       </c>
       <c r="J15">
-        <v>0.001502259056311421</v>
+        <v>0.0007124942001013113</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>284.311225</v>
       </c>
       <c r="O15">
-        <v>0.6083190427686328</v>
+        <v>0.5272353917716817</v>
       </c>
       <c r="P15">
-        <v>0.6419542297705754</v>
+        <v>0.5643886187919435</v>
       </c>
       <c r="Q15">
-        <v>1.1429311245</v>
+        <v>0.3722581639333334</v>
       </c>
       <c r="R15">
-        <v>10.2863801205</v>
+        <v>3.3503234754</v>
       </c>
       <c r="S15">
-        <v>0.0007359831153915889</v>
+        <v>0.0002865092210043198</v>
       </c>
       <c r="T15">
-        <v>0.0009643815554102695</v>
+        <v>0.0004021236174924497</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.01206</v>
+        <v>0.003928</v>
       </c>
       <c r="H16">
-        <v>0.03618</v>
+        <v>0.011784</v>
       </c>
       <c r="I16">
-        <v>0.001209863679496076</v>
+        <v>0.0005434180358066555</v>
       </c>
       <c r="J16">
-        <v>0.001502259056311421</v>
+        <v>0.0007124942001013113</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.538844</v>
+        <v>16.72909766666666</v>
       </c>
       <c r="N16">
-        <v>49.61653199999999</v>
+        <v>50.187293</v>
       </c>
       <c r="O16">
-        <v>0.1061607091022847</v>
+        <v>0.09306884414013258</v>
       </c>
       <c r="P16">
-        <v>0.1120305488604859</v>
+        <v>0.09962722005498224</v>
       </c>
       <c r="Q16">
-        <v>0.19945845864</v>
+        <v>0.06571189563466666</v>
       </c>
       <c r="R16">
-        <v>1.795126127759999</v>
+        <v>0.5914070607119999</v>
       </c>
       <c r="S16">
-        <v>0.0001284399861324028</v>
+        <v>5.057528847742661E-05</v>
       </c>
       <c r="T16">
-        <v>0.000168298906609204</v>
+        <v>7.09838164613919E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.01206</v>
+        <v>0.003928</v>
       </c>
       <c r="H17">
-        <v>0.03618</v>
+        <v>0.011784</v>
       </c>
       <c r="I17">
-        <v>0.001209863679496076</v>
+        <v>0.0005434180358066555</v>
       </c>
       <c r="J17">
-        <v>0.001502259056311421</v>
+        <v>0.0007124942001013113</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.012789</v>
+        <v>17.8223195</v>
       </c>
       <c r="N17">
-        <v>28.025578</v>
+        <v>35.644639</v>
       </c>
       <c r="O17">
-        <v>0.08994628746366408</v>
+        <v>0.09915075569593756</v>
       </c>
       <c r="P17">
-        <v>0.06327973276069274</v>
+        <v>0.07075847452926784</v>
       </c>
       <c r="Q17">
-        <v>0.16899423534</v>
+        <v>0.07000607099599999</v>
       </c>
       <c r="R17">
-        <v>1.01396541204</v>
+        <v>0.4200364259759999</v>
       </c>
       <c r="S17">
-        <v>0.0001088227463078004</v>
+        <v>5.388030890903195E-05</v>
       </c>
       <c r="T17">
-        <v>9.506255162071717E-05</v>
+        <v>5.04150027101197E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.01206</v>
+        <v>0.003928</v>
       </c>
       <c r="H18">
-        <v>0.03618</v>
+        <v>0.011784</v>
       </c>
       <c r="I18">
-        <v>0.001209863679496076</v>
+        <v>0.0005434180358066555</v>
       </c>
       <c r="J18">
-        <v>0.001502259056311421</v>
+        <v>0.0007124942001013113</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.575923</v>
+        <v>14.92062066666667</v>
       </c>
       <c r="N18">
-        <v>25.727769</v>
+        <v>44.761862</v>
       </c>
       <c r="O18">
-        <v>0.05504774498668669</v>
+        <v>0.08300775971121065</v>
       </c>
       <c r="P18">
-        <v>0.05809144585167288</v>
+        <v>0.08885715106301406</v>
       </c>
       <c r="Q18">
-        <v>0.10342563138</v>
+        <v>0.05860819797866667</v>
       </c>
       <c r="R18">
-        <v>0.9308306824199999</v>
+        <v>0.527473781808</v>
       </c>
       <c r="S18">
-        <v>6.660026729755443E-05</v>
+        <v>4.510791373897692E-05</v>
       </c>
       <c r="T18">
-        <v>8.726840062490009E-05</v>
+        <v>6.331020476992359E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.01206</v>
+        <v>0.003928</v>
       </c>
       <c r="H19">
-        <v>0.03618</v>
+        <v>0.011784</v>
       </c>
       <c r="I19">
-        <v>0.001209863679496076</v>
+        <v>0.0005434180358066555</v>
       </c>
       <c r="J19">
-        <v>0.001502259056311421</v>
+        <v>0.0007124942001013113</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.41751</v>
+        <v>17.831267</v>
       </c>
       <c r="N19">
-        <v>34.25253</v>
+        <v>53.493801</v>
       </c>
       <c r="O19">
-        <v>0.07328752588647836</v>
+        <v>0.09920053324518359</v>
       </c>
       <c r="P19">
-        <v>0.07733974103148239</v>
+        <v>0.1061909970678122</v>
       </c>
       <c r="Q19">
-        <v>0.1376951706</v>
+        <v>0.070041216776</v>
       </c>
       <c r="R19">
-        <v>1.2392565354</v>
+        <v>0.630370950984</v>
       </c>
       <c r="S19">
-        <v>8.866791573017863E-05</v>
+        <v>5.39073589270705E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001161843263773244</v>
+        <v>7.566046951379152E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.2514585</v>
+        <v>1.9606995</v>
       </c>
       <c r="H20">
-        <v>6.502917</v>
+        <v>3.921399</v>
       </c>
       <c r="I20">
-        <v>0.3261875244227854</v>
+        <v>0.2712524111754306</v>
       </c>
       <c r="J20">
-        <v>0.2700128788195549</v>
+        <v>0.2370989514411984</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.475158</v>
+        <v>17.675996</v>
       </c>
       <c r="N20">
-        <v>20.950316</v>
+        <v>35.351992</v>
       </c>
       <c r="O20">
-        <v>0.06723868979225338</v>
+        <v>0.09833671543585389</v>
       </c>
       <c r="P20">
-        <v>0.04730430172509074</v>
+        <v>0.07017753849298013</v>
       </c>
       <c r="Q20">
-        <v>34.059541517943</v>
+        <v>34.657316519202</v>
       </c>
       <c r="R20">
-        <v>136.238166071772</v>
+        <v>138.629266076808</v>
       </c>
       <c r="S20">
-        <v>0.02193242176876674</v>
+        <v>0.02667407116904755</v>
       </c>
       <c r="T20">
-        <v>0.01277277068934059</v>
+        <v>0.01663902079140993</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.2514585</v>
+        <v>1.9606995</v>
       </c>
       <c r="H21">
-        <v>6.502917</v>
+        <v>3.921399</v>
       </c>
       <c r="I21">
-        <v>0.3261875244227854</v>
+        <v>0.2712524111754306</v>
       </c>
       <c r="J21">
-        <v>0.2700128788195549</v>
+        <v>0.2370989514411984</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>284.311225</v>
       </c>
       <c r="O21">
-        <v>0.6083190427686328</v>
+        <v>0.5272353917716817</v>
       </c>
       <c r="P21">
-        <v>0.6419542297705754</v>
+        <v>0.5643886187919435</v>
       </c>
       <c r="Q21">
-        <v>308.1420497238876</v>
+        <v>185.8162922339625</v>
       </c>
       <c r="R21">
-        <v>1848.852298343325</v>
+        <v>1114.897753403775</v>
       </c>
       <c r="S21">
-        <v>0.1984260826199389</v>
+        <v>0.1430138712750915</v>
       </c>
       <c r="T21">
-        <v>0.1733359096507431</v>
+        <v>0.1338159497209161</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.2514585</v>
+        <v>1.9606995</v>
       </c>
       <c r="H22">
-        <v>6.502917</v>
+        <v>3.921399</v>
       </c>
       <c r="I22">
-        <v>0.3261875244227854</v>
+        <v>0.2712524111754306</v>
       </c>
       <c r="J22">
-        <v>0.2700128788195549</v>
+        <v>0.2370989514411984</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>16.538844</v>
+        <v>16.72909766666666</v>
       </c>
       <c r="N22">
-        <v>49.61653199999999</v>
+        <v>50.187293</v>
       </c>
       <c r="O22">
-        <v>0.1061607091022847</v>
+        <v>0.09306884414013258</v>
       </c>
       <c r="P22">
-        <v>0.1120305488604859</v>
+        <v>0.09962722005498224</v>
       </c>
       <c r="Q22">
-        <v>53.77536490397399</v>
+        <v>32.8007334304845</v>
       </c>
       <c r="R22">
-        <v>322.6521894238439</v>
+        <v>196.804400582907</v>
       </c>
       <c r="S22">
-        <v>0.03462829889304173</v>
+        <v>0.02524514837832131</v>
       </c>
       <c r="T22">
-        <v>0.0302496910135546</v>
+        <v>0.02362150941003783</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.2514585</v>
+        <v>1.9606995</v>
       </c>
       <c r="H23">
-        <v>6.502917</v>
+        <v>3.921399</v>
       </c>
       <c r="I23">
-        <v>0.3261875244227854</v>
+        <v>0.2712524111754306</v>
       </c>
       <c r="J23">
-        <v>0.2700128788195549</v>
+        <v>0.2370989514411984</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>14.012789</v>
+        <v>17.8223195</v>
       </c>
       <c r="N23">
-        <v>28.025578</v>
+        <v>35.644639</v>
       </c>
       <c r="O23">
-        <v>0.08994628746366408</v>
+        <v>0.09915075569593756</v>
       </c>
       <c r="P23">
-        <v>0.06327973276069274</v>
+        <v>0.07075847452926784</v>
       </c>
       <c r="Q23">
-        <v>45.56200190275651</v>
+        <v>34.94421293249025</v>
       </c>
       <c r="R23">
-        <v>182.248007611026</v>
+        <v>139.776851729961</v>
       </c>
       <c r="S23">
-        <v>0.02933935683879281</v>
+        <v>0.02689488155238913</v>
       </c>
       <c r="T23">
-        <v>0.01708634281364674</v>
+        <v>0.01677676011646815</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.2514585</v>
+        <v>1.9606995</v>
       </c>
       <c r="H24">
-        <v>6.502917</v>
+        <v>3.921399</v>
       </c>
       <c r="I24">
-        <v>0.3261875244227854</v>
+        <v>0.2712524111754306</v>
       </c>
       <c r="J24">
-        <v>0.2700128788195549</v>
+        <v>0.2370989514411984</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.575923</v>
+        <v>14.92062066666667</v>
       </c>
       <c r="N24">
-        <v>25.727769</v>
+        <v>44.761862</v>
       </c>
       <c r="O24">
-        <v>0.05504774498668669</v>
+        <v>0.08300775971121065</v>
       </c>
       <c r="P24">
-        <v>0.05809144585167288</v>
+        <v>0.08885715106301406</v>
       </c>
       <c r="Q24">
-        <v>27.8842577336955</v>
+        <v>29.254853480823</v>
       </c>
       <c r="R24">
-        <v>167.305546402173</v>
+        <v>175.529120884938</v>
       </c>
       <c r="S24">
-        <v>0.01795588766226413</v>
+        <v>0.02251605496793666</v>
       </c>
       <c r="T24">
-        <v>0.01568543852920048</v>
+        <v>0.02106793734509281</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.2514585</v>
+        <v>1.9606995</v>
       </c>
       <c r="H25">
-        <v>6.502917</v>
+        <v>3.921399</v>
       </c>
       <c r="I25">
-        <v>0.3261875244227854</v>
+        <v>0.2712524111754306</v>
       </c>
       <c r="J25">
-        <v>0.2700128788195549</v>
+        <v>0.2370989514411984</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.41751</v>
+        <v>17.831267</v>
       </c>
       <c r="N25">
-        <v>34.25253</v>
+        <v>53.493801</v>
       </c>
       <c r="O25">
-        <v>0.07328752588647836</v>
+        <v>0.09920053324518359</v>
       </c>
       <c r="P25">
-        <v>0.07733974103148239</v>
+        <v>0.1061909970678122</v>
       </c>
       <c r="Q25">
-        <v>37.123559938335</v>
+        <v>34.9617562912665</v>
       </c>
       <c r="R25">
-        <v>222.74135963001</v>
+        <v>209.770537747599</v>
       </c>
       <c r="S25">
-        <v>0.02390547663998118</v>
+        <v>0.02690838383264452</v>
       </c>
       <c r="T25">
-        <v>0.02088272612306941</v>
+        <v>0.02517777405727364</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>2.055205</v>
+        <v>0.02851766666666667</v>
       </c>
       <c r="H26">
-        <v>6.165615</v>
+        <v>0.085553</v>
       </c>
       <c r="I26">
-        <v>0.2061789289733609</v>
+        <v>0.003945268433245655</v>
       </c>
       <c r="J26">
-        <v>0.2560074895378535</v>
+        <v>0.005172778029639129</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.475158</v>
+        <v>17.675996</v>
       </c>
       <c r="N26">
-        <v>20.950316</v>
+        <v>35.351992</v>
       </c>
       <c r="O26">
-        <v>0.06723868979225338</v>
+        <v>0.09833671543585389</v>
       </c>
       <c r="P26">
-        <v>0.04730430172509074</v>
+        <v>0.07017753849298013</v>
       </c>
       <c r="Q26">
-        <v>21.52859709739</v>
+        <v>0.5040781619293333</v>
       </c>
       <c r="R26">
-        <v>129.17158258434</v>
+        <v>3.024468971576</v>
       </c>
       <c r="S26">
-        <v>0.01386320104693886</v>
+        <v>0.000387964739238135</v>
       </c>
       <c r="T26">
-        <v>0.01211025552898163</v>
+        <v>0.0003630128292906419</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>2.055205</v>
+        <v>0.02851766666666667</v>
       </c>
       <c r="H27">
-        <v>6.165615</v>
+        <v>0.085553</v>
       </c>
       <c r="I27">
-        <v>0.2061789289733609</v>
+        <v>0.003945268433245655</v>
       </c>
       <c r="J27">
-        <v>0.2560074895378535</v>
+        <v>0.005172778029639129</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>284.311225</v>
       </c>
       <c r="O27">
-        <v>0.6083190427686328</v>
+        <v>0.5272353917716817</v>
       </c>
       <c r="P27">
-        <v>0.6419542297705754</v>
+        <v>0.5643886187919435</v>
       </c>
       <c r="Q27">
-        <v>194.7726170587084</v>
+        <v>2.702630914713889</v>
       </c>
       <c r="R27">
-        <v>1752.953553528375</v>
+        <v>24.323678232425</v>
       </c>
       <c r="S27">
-        <v>0.1254225687121369</v>
+        <v>0.002080085148046721</v>
       </c>
       <c r="T27">
-        <v>0.1643450907617714</v>
+        <v>0.002919457047465339</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>2.055205</v>
+        <v>0.02851766666666667</v>
       </c>
       <c r="H28">
-        <v>6.165615</v>
+        <v>0.085553</v>
       </c>
       <c r="I28">
-        <v>0.2061789289733609</v>
+        <v>0.003945268433245655</v>
       </c>
       <c r="J28">
-        <v>0.2560074895378535</v>
+        <v>0.005172778029639129</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>16.538844</v>
+        <v>16.72909766666666</v>
       </c>
       <c r="N28">
-        <v>49.61653199999999</v>
+        <v>50.187293</v>
       </c>
       <c r="O28">
-        <v>0.1061607091022847</v>
+        <v>0.09306884414013258</v>
       </c>
       <c r="P28">
-        <v>0.1120305488604859</v>
+        <v>0.09962722005498224</v>
       </c>
       <c r="Q28">
-        <v>33.99071488302</v>
+        <v>0.4770748308921111</v>
       </c>
       <c r="R28">
-        <v>305.9164339471799</v>
+        <v>4.293673478029</v>
       </c>
       <c r="S28">
-        <v>0.0218881013017616</v>
+        <v>0.0003671815729047249</v>
       </c>
       <c r="T28">
-        <v>0.02868065956532083</v>
+        <v>0.000515349495054435</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>2.055205</v>
+        <v>0.02851766666666667</v>
       </c>
       <c r="H29">
-        <v>6.165615</v>
+        <v>0.085553</v>
       </c>
       <c r="I29">
-        <v>0.2061789289733609</v>
+        <v>0.003945268433245655</v>
       </c>
       <c r="J29">
-        <v>0.2560074895378535</v>
+        <v>0.005172778029639129</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>14.012789</v>
+        <v>17.8223195</v>
       </c>
       <c r="N29">
-        <v>28.025578</v>
+        <v>35.644639</v>
       </c>
       <c r="O29">
-        <v>0.08994628746366408</v>
+        <v>0.09915075569593756</v>
       </c>
       <c r="P29">
-        <v>0.06327973276069274</v>
+        <v>0.07075847452926784</v>
       </c>
       <c r="Q29">
-        <v>28.799154016745</v>
+        <v>0.5082509667278333</v>
       </c>
       <c r="R29">
-        <v>172.79492410047</v>
+        <v>3.049505800367</v>
       </c>
       <c r="S29">
-        <v>0.0185450292143883</v>
+        <v>0.0003911763465796343</v>
       </c>
       <c r="T29">
-        <v>0.01620008552269121</v>
+        <v>0.0003660178824557766</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>2.055205</v>
+        <v>0.02851766666666667</v>
       </c>
       <c r="H30">
-        <v>6.165615</v>
+        <v>0.085553</v>
       </c>
       <c r="I30">
-        <v>0.2061789289733609</v>
+        <v>0.003945268433245655</v>
       </c>
       <c r="J30">
-        <v>0.2560074895378535</v>
+        <v>0.005172778029639129</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>8.575923</v>
+        <v>14.92062066666667</v>
       </c>
       <c r="N30">
-        <v>25.727769</v>
+        <v>44.761862</v>
       </c>
       <c r="O30">
-        <v>0.05504774498668669</v>
+        <v>0.08300775971121065</v>
       </c>
       <c r="P30">
-        <v>0.05809144585167288</v>
+        <v>0.08885715106301406</v>
       </c>
       <c r="Q30">
-        <v>17.625279829215</v>
+        <v>0.4255012866317778</v>
       </c>
       <c r="R30">
-        <v>158.627518462935</v>
+        <v>3.829511579686</v>
       </c>
       <c r="S30">
-        <v>0.01134968510375376</v>
+        <v>0.0003274878941030798</v>
       </c>
       <c r="T30">
-        <v>0.01487184521611093</v>
+        <v>0.0004596383187950843</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>2.055205</v>
+        <v>0.02851766666666667</v>
       </c>
       <c r="H31">
-        <v>6.165615</v>
+        <v>0.085553</v>
       </c>
       <c r="I31">
-        <v>0.2061789289733609</v>
+        <v>0.003945268433245655</v>
       </c>
       <c r="J31">
-        <v>0.2560074895378535</v>
+        <v>0.005172778029639129</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>11.41751</v>
+        <v>17.831267</v>
       </c>
       <c r="N31">
-        <v>34.25253</v>
+        <v>53.493801</v>
       </c>
       <c r="O31">
-        <v>0.07328752588647836</v>
+        <v>0.09920053324518359</v>
       </c>
       <c r="P31">
-        <v>0.07733974103148239</v>
+        <v>0.1061909970678122</v>
       </c>
       <c r="Q31">
-        <v>23.46532363955</v>
+        <v>0.5085061285503334</v>
       </c>
       <c r="R31">
-        <v>211.18791275595</v>
+        <v>4.576555156953001</v>
       </c>
       <c r="S31">
-        <v>0.01511034359438157</v>
+        <v>0.0003913727323733589</v>
       </c>
       <c r="T31">
-        <v>0.01979955294297753</v>
+        <v>0.0005493024565778519</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.03685233333333333</v>
+        <v>0.006513000000000001</v>
       </c>
       <c r="H32">
-        <v>0.110557</v>
+        <v>0.019539</v>
       </c>
       <c r="I32">
-        <v>0.003697039768215801</v>
+        <v>0.0009010391209798237</v>
       </c>
       <c r="J32">
-        <v>0.004590526658060303</v>
+        <v>0.001181383585860448</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>10.475158</v>
+        <v>17.675996</v>
       </c>
       <c r="N32">
-        <v>20.950316</v>
+        <v>35.351992</v>
       </c>
       <c r="O32">
-        <v>0.06723868979225338</v>
+        <v>0.09833671543585389</v>
       </c>
       <c r="P32">
-        <v>0.04730430172509074</v>
+        <v>0.07017753849298013</v>
       </c>
       <c r="Q32">
-        <v>0.3860340143353334</v>
+        <v>0.115123761948</v>
       </c>
       <c r="R32">
-        <v>2.316204086012</v>
+        <v>0.6907425716879999</v>
       </c>
       <c r="S32">
-        <v>0.0002485841101246866</v>
+        <v>8.860522763636485E-05</v>
       </c>
       <c r="T32">
-        <v>0.000217151658109957</v>
+        <v>8.29065920716965E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.03685233333333333</v>
+        <v>0.006513000000000001</v>
       </c>
       <c r="H33">
-        <v>0.110557</v>
+        <v>0.019539</v>
       </c>
       <c r="I33">
-        <v>0.003697039768215801</v>
+        <v>0.0009010391209798237</v>
       </c>
       <c r="J33">
-        <v>0.004590526658060303</v>
+        <v>0.001181383585860448</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>284.311225</v>
       </c>
       <c r="O33">
-        <v>0.6083190427686328</v>
+        <v>0.5272353917716817</v>
       </c>
       <c r="P33">
-        <v>0.6419542297705754</v>
+        <v>0.5643886187919435</v>
       </c>
       <c r="Q33">
-        <v>3.492510678036112</v>
+        <v>0.6172396694750002</v>
       </c>
       <c r="R33">
-        <v>31.432596102325</v>
+        <v>5.555157025275001</v>
       </c>
       <c r="S33">
-        <v>0.002248979692878604</v>
+        <v>0.000475059713951409</v>
       </c>
       <c r="T33">
-        <v>0.002946908005016395</v>
+        <v>0.0006667594502872518</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.03685233333333333</v>
+        <v>0.006513000000000001</v>
       </c>
       <c r="H34">
-        <v>0.110557</v>
+        <v>0.019539</v>
       </c>
       <c r="I34">
-        <v>0.003697039768215801</v>
+        <v>0.0009010391209798237</v>
       </c>
       <c r="J34">
-        <v>0.004590526658060303</v>
+        <v>0.001181383585860448</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>16.538844</v>
+        <v>16.72909766666666</v>
       </c>
       <c r="N34">
-        <v>49.61653199999999</v>
+        <v>50.187293</v>
       </c>
       <c r="O34">
-        <v>0.1061607091022847</v>
+        <v>0.09306884414013258</v>
       </c>
       <c r="P34">
-        <v>0.1120305488604859</v>
+        <v>0.09962722005498224</v>
       </c>
       <c r="Q34">
-        <v>0.6094949920359999</v>
+        <v>0.108956613103</v>
       </c>
       <c r="R34">
-        <v>5.485454928323999</v>
+        <v>0.980609517927</v>
       </c>
       <c r="S34">
-        <v>0.0003924803633731358</v>
+        <v>8.385866951463328E-05</v>
       </c>
       <c r="T34">
-        <v>0.0005142792210611877</v>
+        <v>0.0001176979624778629</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.03685233333333333</v>
+        <v>0.006513000000000001</v>
       </c>
       <c r="H35">
-        <v>0.110557</v>
+        <v>0.019539</v>
       </c>
       <c r="I35">
-        <v>0.003697039768215801</v>
+        <v>0.0009010391209798237</v>
       </c>
       <c r="J35">
-        <v>0.004590526658060303</v>
+        <v>0.001181383585860448</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>14.012789</v>
+        <v>17.8223195</v>
       </c>
       <c r="N35">
-        <v>28.025578</v>
+        <v>35.644639</v>
       </c>
       <c r="O35">
-        <v>0.08994628746366408</v>
+        <v>0.09915075569593756</v>
       </c>
       <c r="P35">
-        <v>0.06327973276069274</v>
+        <v>0.07075847452926784</v>
       </c>
       <c r="Q35">
-        <v>0.5164039711576668</v>
+        <v>0.1160767669035</v>
       </c>
       <c r="R35">
-        <v>3.098423826946</v>
+        <v>0.696460601421</v>
       </c>
       <c r="S35">
-        <v>0.0003325350017565364</v>
+        <v>8.933870975675283E-05</v>
       </c>
       <c r="T35">
-        <v>0.0002904873001528919</v>
+        <v>8.359290036940164E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.03685233333333333</v>
+        <v>0.006513000000000001</v>
       </c>
       <c r="H36">
-        <v>0.110557</v>
+        <v>0.019539</v>
       </c>
       <c r="I36">
-        <v>0.003697039768215801</v>
+        <v>0.0009010391209798237</v>
       </c>
       <c r="J36">
-        <v>0.004590526658060303</v>
+        <v>0.001181383585860448</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>8.575923</v>
+        <v>14.92062066666667</v>
       </c>
       <c r="N36">
-        <v>25.727769</v>
+        <v>44.761862</v>
       </c>
       <c r="O36">
-        <v>0.05504774498668669</v>
+        <v>0.08300775971121065</v>
       </c>
       <c r="P36">
-        <v>0.05809144585167288</v>
+        <v>0.08885715106301406</v>
       </c>
       <c r="Q36">
-        <v>0.316042773037</v>
+        <v>0.097178002402</v>
       </c>
       <c r="R36">
-        <v>2.844384957333</v>
+        <v>0.874602021618</v>
       </c>
       <c r="S36">
-        <v>0.0002035137023663827</v>
+        <v>7.479323884469366E-05</v>
       </c>
       <c r="T36">
-        <v>0.0002666703307873709</v>
+        <v>0.0001049743797521671</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.03685233333333333</v>
+        <v>0.006513000000000001</v>
       </c>
       <c r="H37">
-        <v>0.110557</v>
+        <v>0.019539</v>
       </c>
       <c r="I37">
-        <v>0.003697039768215801</v>
+        <v>0.0009010391209798237</v>
       </c>
       <c r="J37">
-        <v>0.004590526658060303</v>
+        <v>0.001181383585860448</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>11.41751</v>
+        <v>17.831267</v>
       </c>
       <c r="N37">
-        <v>34.25253</v>
+        <v>53.493801</v>
       </c>
       <c r="O37">
-        <v>0.07328752588647836</v>
+        <v>0.09920053324518359</v>
       </c>
       <c r="P37">
-        <v>0.07733974103148239</v>
+        <v>0.1061909970678122</v>
       </c>
       <c r="Q37">
-        <v>0.4207618843566667</v>
+        <v>0.116135041971</v>
       </c>
       <c r="R37">
-        <v>3.78685695921</v>
+        <v>1.045215377739</v>
       </c>
       <c r="S37">
-        <v>0.0002709468977164555</v>
+        <v>8.938356127596999E-05</v>
       </c>
       <c r="T37">
-        <v>0.0003550301429325001</v>
+        <v>0.0001254523009020683</v>
       </c>
     </row>
   </sheetData>
